--- a/biology/Médecine/Syndrome_de_König/Syndrome_de_König.xlsx
+++ b/biology/Médecine/Syndrome_de_König/Syndrome_de_König.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_de_K%C3%B6nig</t>
+          <t>Syndrome_de_König</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de König (ou Koenig) est un syndrome clinique caractérisé par des douleurs abdominales très brutales, principalement péri-ombilicales transitoires et rapidement progressives.
-Ce syndrome[1] est dû à un dysfonctionnement de l'intestin grêle. Lors de la crise, le volume de l'intestin grêle augmente car il résiste à la tension due par un obstacle qui le rétrécit. La douleur ressentie pendant la crise se traduit par des contractions intestinales tellement violentes qu'elles provoquent l'impossibilité pour le patient de rester à la verticale. 
+Ce syndrome est dû à un dysfonctionnement de l'intestin grêle. Lors de la crise, le volume de l'intestin grêle augmente car il résiste à la tension due par un obstacle qui le rétrécit. La douleur ressentie pendant la crise se traduit par des contractions intestinales tellement violentes qu'elles provoquent l'impossibilité pour le patient de rester à la verticale. 
 Il rassemble des symptômes divers à prédominance post-prandiaux précoce. La topographie est fixe, les signes associés sont nombreux : météorisme, borborygmes, arrêt des gaz et résolution brutale avec soulagement à type de débâcle hydro-aérique. Ces symptômes sont en rapport avec un mécanisme occlusif transitoire du tube digestif.
 Cette pathologie ne doit pas être confondue avec la maladie de König (ostéochondrite disséquante).
 </t>
